--- a/biology/Microbiologie/Mycobacterium/Mycobacterium.xlsx
+++ b/biology/Microbiologie/Mycobacterium/Mycobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycobacterium, la Mycobactérie, est un genre de bactéries de la famille des Mycobacteriaceae. Ce sont des bacilles aérobies assez longs et fins, asporulés et acapsulés.
 Leur paroi présente une structure particulière, riche en cires (acides mycoliques) qui leur permet de retenir les colorants malgré l'action combinée d'acide dilué et d'alcool. Cette paroi leur confère une grande résistance aux antiseptiques, à certains antibiotiques, aux macrophages.
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification de Runyon
-La taxonomie du genre Mycobacterium reposait sur la classification de Runyon (1954) fondée sur la vitesse de croissance et la pigmentation (4 groupes présentés dans le tableau suivant).
+          <t>Classification de Runyon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La taxonomie du genre Mycobacterium reposait sur la classification de Runyon (1954) fondée sur la vitesse de croissance et la pigmentation (4 groupes présentés dans le tableau suivant).
 Mais dans la pratique courante, on distingue les mycobactéries tuberculeuses du complexe Mycobacterium tuberculosis comprenant les espèces déterminant la tuberculose humaine (M. tuberculosis), bovine (M. bovis) ou celle observée le plus souvent en Afrique noire (M. africanum).
 Espèces pathogènes pour l'homme du groupe tuberculosis
 Mycobacterium tuberculosis (BK = bacille de Koch)
@@ -533,11 +550,7 @@
 Espèce non pathogène pour l'homme
 Mycobacterium vaccae
 Mycobactéries dites « atypiques »
-Elles sont parfois pathogènes pour l'homme, notamment chez les immunodéprimés (cancers, SIDA)
-Classifications de 2018 et 2019
-En 2018 R.S. Gupta et al. ont proposé une importante refonte du genre Mycobacterium en s'appuyant sur des techniques de phylogénétique moléculaire[1]. En analysant le génome des 150 espèces de Mycobactéries séquencées au moment de l'étude, à travers la comparaison de trois séries de protéines conservées parmi elles et sur la base d'autres données concordantes, cette équipe a démontré l'hétérogénéité de l'ancien genre unique Mycobacterium. Un grand nombre d'espèces en ont été exclues et reclassées dans quatre nouveaux genres créés pour l'occasion : Mycolicibacter, Mycolicibacillus, Mycolicibacterium et Mycobacteroides. Le genre Mycobacterium a été conservé mais avec un nombre d'espèces plus restreint.
-En 2019, Gupta amende la description de l'ordre des Mycobactériales en y incluant la famille des Mycobacteriaceae[2],[3].
-</t>
+Elles sont parfois pathogènes pour l'homme, notamment chez les immunodéprimés (cancers, SIDA)</t>
         </is>
       </c>
     </row>
@@ -562,15 +575,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classifications de 2018 et 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018 R.S. Gupta et al. ont proposé une importante refonte du genre Mycobacterium en s'appuyant sur des techniques de phylogénétique moléculaire. En analysant le génome des 150 espèces de Mycobactéries séquencées au moment de l'étude, à travers la comparaison de trois séries de protéines conservées parmi elles et sur la base d'autres données concordantes, cette équipe a démontré l'hétérogénéité de l'ancien genre unique Mycobacterium. Un grand nombre d'espèces en ont été exclues et reclassées dans quatre nouveaux genres créés pour l'occasion : Mycolicibacter, Mycolicibacillus, Mycolicibacterium et Mycobacteroides. Le genre Mycobacterium a été conservé mais avec un nombre d'espèces plus restreint.
+En 2019, Gupta amende la description de l'ordre des Mycobactériales en y incluant la famille des Mycobacteriaceae,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mycobacterium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacterium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN
-Le genre Mycobacterium conservé par Gupta en 2018 se limite désormais aux espèces suivantes[4] :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mycobacterium conservé par Gupta en 2018 se limite désormais aux espèces suivantes :
 Mycobacterium tuberculosis (Zopf 1883) Lehman &amp; Neumann 1896 : espèce type de description du genre
-Mycobacterium tuberculosis var. africanum : reclassement de M. africanum Castets et al. 1969[5]
+Mycobacterium tuberculosis var. africanum : reclassement de M. africanum Castets et al. 1969
 Mycobacterium tuberculosis var. bovis : reclassement de M. bovis Karlson &amp; Lessel 1970
 Mycobacterium tuberculosis var. caprae : reclassement de M. caprae (Aranaz et al. 1999) Aranaz et al. 2003
 Mycobacterium tuberculosis var. microti : reclassement de M. microti Reed 1957
